--- a/Anisha/Results.xlsx
+++ b/Anisha/Results.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DB9D0B9-C7BC-49E4-A4DF-3CB3DF09C018}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CB60837-157C-4425-975E-7BF06FE29DCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cv tfidf" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="count &amp; tfidf" sheetId="1" r:id="rId1"/>
+    <sheet name="Count vs tfidf" sheetId="6" r:id="rId2"/>
     <sheet name="knn" sheetId="4" r:id="rId3"/>
     <sheet name="Random forest" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Kernel SVM</t>
   </si>
@@ -52,22 +52,7 @@
     <t>YELP</t>
   </si>
   <si>
-    <t>RESTAURANT</t>
-  </si>
-  <si>
     <t xml:space="preserve">AVG </t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>COUNT VECTORIZER</t>
@@ -115,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +110,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,7 +214,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$B$2</c:f>
+              <c:f>'count &amp; tfidf'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -270,7 +258,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'cv tfidf'!$A$3:$A$8</c:f>
+              <c:f>'count &amp; tfidf'!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -296,7 +284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$B$3:$B$8</c:f>
+              <c:f>'count &amp; tfidf'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -332,7 +320,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$C$2</c:f>
+              <c:f>'count &amp; tfidf'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -376,7 +364,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'cv tfidf'!$A$3:$A$8</c:f>
+              <c:f>'count &amp; tfidf'!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -402,7 +390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$C$3:$C$8</c:f>
+              <c:f>'count &amp; tfidf'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -438,7 +426,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$D$2</c:f>
+              <c:f>'count &amp; tfidf'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -482,7 +470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'cv tfidf'!$A$3:$A$8</c:f>
+              <c:f>'count &amp; tfidf'!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -508,7 +496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$D$3:$D$8</c:f>
+              <c:f>'count &amp; tfidf'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -560,7 +548,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$E$2</c:f>
+              <c:f>'count &amp; tfidf'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -585,7 +573,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'cv tfidf'!$A$3:$A$8</c:f>
+              <c:f>'count &amp; tfidf'!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -611,7 +599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$E$3:$E$8</c:f>
+              <c:f>'count &amp; tfidf'!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -663,6 +651,63 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45130418465002814"/>
+              <c:y val="0.81457281647199897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,6 +770,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -861,20 +955,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1600"/>
-              <a:t>COMPARING CLASSIFIERS - TF-IDF VECTORIZER</a:t>
+              <a:rPr lang="en-IN" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>COMPARING CLASSIFIERS - COUNT VECTORIZER</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15893057448414455"/>
-          <c:y val="2.8673830501214685E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -913,7 +1004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$G$2</c:f>
+              <c:f>'count &amp; tfidf'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,9 +1046,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count &amp; tfidf'!$G$3:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Kernel SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$G$3:$G$8</c:f>
+              <c:f>'count &amp; tfidf'!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -984,7 +1101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E08-4B6B-A722-1BD4C051AC4C}"/>
+              <c16:uniqueId val="{00000000-DD2A-4A6D-AF76-83F08FEF38B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -993,7 +1110,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$H$2</c:f>
+              <c:f>'count &amp; tfidf'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1035,9 +1152,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count &amp; tfidf'!$G$3:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Kernel SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$H$3:$H$8</c:f>
+              <c:f>'count &amp; tfidf'!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1064,7 +1207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E08-4B6B-A722-1BD4C051AC4C}"/>
+              <c16:uniqueId val="{00000001-DD2A-4A6D-AF76-83F08FEF38B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1073,7 +1216,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$I$2</c:f>
+              <c:f>'count &amp; tfidf'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1115,9 +1258,35 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count &amp; tfidf'!$G$3:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Kernel SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$I$3:$I$8</c:f>
+              <c:f>'count &amp; tfidf'!$J$3:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1144,7 +1313,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E08-4B6B-A722-1BD4C051AC4C}"/>
+              <c16:uniqueId val="{00000002-DD2A-4A6D-AF76-83F08FEF38B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1156,10 +1325,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="247"/>
         <c:overlap val="-27"/>
-        <c:axId val="344951656"/>
-        <c:axId val="344951984"/>
+        <c:axId val="363994544"/>
+        <c:axId val="363989624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1169,7 +1338,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'cv tfidf'!$J$2</c:f>
+              <c:f>'count &amp; tfidf'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1190,9 +1359,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'count &amp; tfidf'!$G$3:$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Kernel SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'cv tfidf'!$J$3:$J$8</c:f>
+              <c:f>'count &amp; tfidf'!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1220,7 +1415,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9E08-4B6B-A722-1BD4C051AC4C}"/>
+              <c16:uniqueId val="{00000003-DD2A-4A6D-AF76-83F08FEF38B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1234,16 +1429,73 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344951656"/>
-        <c:axId val="344951984"/>
+        <c:axId val="363994544"/>
+        <c:axId val="363989624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344951656"/>
+        <c:axId val="363994544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Algorithms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41509456980725201"/>
+              <c:y val="0.82899814765664359"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1278,7 +1530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344951984"/>
+        <c:crossAx val="363989624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1286,7 +1538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344951984"/>
+        <c:axId val="363989624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,6 +1558,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1334,7 +1635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344951656"/>
+        <c:crossAx val="363994544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1442,20 +1743,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>COUNT VECTORIZER V/S TF-IDF VECTORIZER</a:t>
+              <a:rPr lang="en-IN" sz="1400"/>
+              <a:t>TF-IDF V/S COUNT VECTORIZER</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27891247672253261"/>
-          <c:y val="2.9629629629629631E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,7 +1762,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1486,7 +1779,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1494,11 +1787,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Count vs tfidf'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>COUNT VECTORIZER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1538,36 +1831,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>'Count vs tfidf'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
+                  <c:v>Kernel SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>'Count vs tfidf'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.67666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-806F-4E1B-B598-6E032EE66C4F}"/>
+              <c16:uniqueId val="{00000000-1D34-4370-B5F9-4459425EA66A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1576,11 +1893,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>'Count vs tfidf'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KNN</c:v>
+                  <c:v>TF-IDF VECTORIZER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1620,364 +1937,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>'Count vs tfidf'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
+                  <c:v>Kernel SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Random Forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$C$3</c:f>
+              <c:f>'Count vs tfidf'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.67666666666666664</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78833333333333344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-806F-4E1B-B598-6E032EE66C4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-806F-4E1B-B598-6E032EE66C4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Naïve Baiyes GAUSSIAN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.70833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70500000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-806F-4E1B-B598-6E032EE66C4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Naïve Baiyes MULTINOMIAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78833333333333344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-806F-4E1B-B598-6E032EE66C4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random Forest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>COUNT VECTORIZER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TF-IDF VECTORIZER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.755</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-806F-4E1B-B598-6E032EE66C4F}"/>
+              <c16:uniqueId val="{00000001-1D34-4370-B5F9-4459425EA66A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1990,17 +2003,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="453226984"/>
-        <c:axId val="453228952"/>
+        <c:axId val="495720760"/>
+        <c:axId val="495721088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="453226984"/>
+        <c:axId val="495720760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2023,7 +2035,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2035,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453228952"/>
+        <c:crossAx val="495721088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2043,12 +2055,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453228952"/>
+        <c:axId val="495721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2063,6 +2075,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51578140161727282"/>
+              <c:y val="0.87756171482985368"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2079,7 +2148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2091,7 +2160,722 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453226984"/>
+        <c:crossAx val="495720760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>No.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> of neighbours vs Accuracy for KNN algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14895122484689413"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMAZON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>knn!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-635B-46E0-9273-04482B3C095E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>knn!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-635B-46E0-9273-04482B3C095E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YELP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>knn!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-635B-46E0-9273-04482B3C095E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="369397456"/>
+        <c:axId val="369398768"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>knn!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>knn!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>knn!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52999999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-635B-46E0-9273-04482B3C095E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="369397456"/>
+        <c:axId val="369398768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="369397456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1050"/>
+                  <a:t>No. of neighbours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37733223972003499"/>
+              <c:y val="0.8005548264800233"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369398768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369398768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.32704068241469814"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369397456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2120,7 +2904,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2141,7 +2928,762 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1200"/>
+              <a:t>No.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1200" baseline="0"/>
+              <a:t> of estimators vs Accuracy in Random Forest Classifier</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random forest'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMAZON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random forest'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random forest'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC7C-40F9-A107-8398846B34C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random forest'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IMDB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random forest'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random forest'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC7C-40F9-A107-8398846B34C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random forest'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YELP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random forest'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random forest'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC7C-40F9-A107-8398846B34C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="361475224"/>
+        <c:axId val="361477192"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random forest'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Random forest'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random forest'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73833333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC7C-40F9-A107-8398846B34C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="361475224"/>
+        <c:axId val="361477192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361475224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of estimators</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361477192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361477192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.33167031204432773"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361475224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2285,6 +3827,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
   <cs:axisTitle>
@@ -3220,7 +4842,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3458,7 +5080,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3684,6 +5305,1012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3694,14 +6321,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3729,22 +6356,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC496C62-BB5F-4D91-A1E0-7086022993C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72777CE1-1FE9-4FE4-BE98-79167B496496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,31 +6389,34 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4807AA0F-A3EA-4178-8769-A0AA6FEB7C73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45CACD5-220E-4873-AFF0-AFAF7C90A99D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3794,7 +6424,89 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E71B6F-66A4-4E67-ABA9-A73E8C3E2D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496EB369-F47F-4989-B18C-74610078B47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4066,10 +6778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,206 +6789,224 @@
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="2.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0.48</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.43</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f>AVERAGE(B3:D3)</f>
         <v>0.46500000000000002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.48</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.43</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.48499999999999999</v>
       </c>
-      <c r="J3" s="2">
-        <f>AVERAGE(G3:I3)</f>
+      <c r="K3" s="2">
+        <f>AVERAGE(H3:J3)</f>
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0.72</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0.7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.61</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f>AVERAGE(B4:D4)</f>
         <v>0.67666666666666664</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.73499999999999999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="J4" s="2">
-        <f>AVERAGE(G4:I4)</f>
+      <c r="K4" s="2">
+        <f>AVERAGE(H4:J4)</f>
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.82</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0.71</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f>AVERAGE(B5:D5)</f>
         <v>0.77500000000000002</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.81499999999999995</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0.755</v>
       </c>
-      <c r="J5" s="2">
-        <f>AVERAGE(G5:I5)</f>
+      <c r="K5" s="2">
+        <f>AVERAGE(H5:J5)</f>
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>0.72</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0.73</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f>AVERAGE(B6:D6)</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.72</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.72</v>
       </c>
-      <c r="J6" s="2">
-        <f>AVERAGE(G6:I6)</f>
+      <c r="K6" s="2">
+        <f>AVERAGE(H6:J6)</f>
         <v>0.70500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0.79</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.76500000000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f>AVERAGE(B7:D7)</f>
         <v>0.79</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.81499999999999995</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.78500000000000003</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.76500000000000001</v>
       </c>
-      <c r="J7" s="2">
-        <f>AVERAGE(G7:I7)</f>
+      <c r="K7" s="2">
+        <f>AVERAGE(H7:J7)</f>
         <v>0.78833333333333344</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -4293,27 +7023,30 @@
         <f>AVERAGE(B8:D8)</f>
         <v>0.75</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.81</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.74</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>0.71499999999999997</v>
       </c>
-      <c r="J8" s="2">
-        <f>AVERAGE(G8:I8)</f>
+      <c r="K8" s="2">
+        <f>AVERAGE(H8:J8)</f>
         <v>0.755</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J8">
+  <sortState ref="A3:K8">
     <sortCondition ref="A3:A8"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4322,110 +7055,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF60E59-F493-418B-8EF1-6FC62BABDA91}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594473BF-7B7C-4B3C-BE05-0F61E8B85555}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0.46500000000000002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.67666666666666664</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.70500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.79</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.78833333333333344</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.75</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.755</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A0701-2FA7-496B-B6A0-9C9A99A3E3C7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,7 +7169,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -4447,11 +7183,8 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -4465,14 +7198,11 @@
         <v>0.61</v>
       </c>
       <c r="E2">
-        <v>0.61</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>0.65999999999999992</v>
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.67666666666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -4486,14 +7216,11 @@
         <v>0.625</v>
       </c>
       <c r="E3">
-        <v>0.625</v>
-      </c>
-      <c r="F3">
-        <f>AVERAGE(B3:E3)</f>
-        <v>0.65</v>
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.65833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>51</v>
       </c>
@@ -4507,14 +7234,11 @@
         <v>0.62</v>
       </c>
       <c r="E4">
-        <v>0.62</v>
-      </c>
-      <c r="F4">
-        <f>AVERAGE(B4:E4)</f>
-        <v>0.57625000000000004</v>
+        <f>AVERAGE(B4:D4)</f>
+        <v>0.56166666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -4528,33 +7252,31 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="E5">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="F5">
-        <f>AVERAGE(B5:E5)</f>
-        <v>0.54374999999999996</v>
+        <f>AVERAGE(B5:D5)</f>
+        <v>0.52999999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F7">
+  <sortState ref="A2:E7">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0725C-5F1D-4E6B-9944-74A72301A694}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,12 +7285,11 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4581,11 +7302,8 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>501</v>
       </c>
@@ -4599,14 +7317,11 @@
         <v>0.72</v>
       </c>
       <c r="E2" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F7" si="0">AVERAGE(B2:E2)</f>
-        <v>0.75374999999999992</v>
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -4620,14 +7335,11 @@
         <v>0.72</v>
       </c>
       <c r="E3" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75374999999999992</v>
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -4641,14 +7353,11 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74749999999999994</v>
+        <f>AVERAGE(B4:D4)</f>
+        <v>0.7583333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -4662,14 +7371,11 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74624999999999997</v>
+        <f>AVERAGE(B5:D5)</f>
+        <v>0.7533333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>51</v>
       </c>
@@ -4683,14 +7389,11 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="E6" s="1">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73875000000000002</v>
+        <f>AVERAGE(B6:D6)</f>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4704,17 +7407,15 @@
         <v>0.73</v>
       </c>
       <c r="E7" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73624999999999996</v>
+        <f>AVERAGE(B7:D7)</f>
+        <v>0.73833333333333329</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F7">
-    <sortCondition descending="1" ref="F2:F7"/>
+  <sortState ref="A2:E7">
+    <sortCondition descending="1" ref="E2:E7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Anisha/Results.xlsx
+++ b/Anisha/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CB60837-157C-4425-975E-7BF06FE29DCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87CB92B0-E8BE-4264-9BFA-CFC64687175C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count &amp; tfidf" sheetId="1" r:id="rId1"/>
@@ -2989,14 +2989,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1200"/>
+              <a:rPr lang="en-IN" sz="1400"/>
               <a:t>No.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" sz="1200" baseline="0"/>
+              <a:rPr lang="en-IN" sz="1400" baseline="0"/>
               <a:t> of estimators vs Accuracy in Random Forest Classifier</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN" sz="1200"/>
+            <a:endParaRPr lang="en-IN" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3067,22 +3067,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,22 +3094,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.82499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,22 +3151,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,22 +3178,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.745</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.745</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,22 +3235,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3262,22 +3262,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,22 +3337,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,22 +3364,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.73833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.76500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.76500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7533333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73833333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +3418,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3431,14 +3431,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
+                  <a:rPr lang="en-IN" sz="1050"/>
                   <a:t>No.</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:rPr lang="en-IN" sz="1050" baseline="0"/>
                   <a:t> of estimators</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
+                <a:endParaRPr lang="en-IN" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3455,7 +3455,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3543,7 +3543,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3556,7 +3556,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050"/>
                   <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -3566,8 +3566,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.33167031204432773"/>
+              <c:x val="1.1813687223523292E-2"/>
+              <c:y val="0.36191596088296146"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3583,7 +3583,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6479,15 +6479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6850,7 +6850,7 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="E3" s="4">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" ref="E3:E8" si="0">AVERAGE(B3:D3)</f>
         <v>0.46500000000000002</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -6866,7 +6866,7 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="K3" s="2">
-        <f>AVERAGE(H3:J3)</f>
+        <f t="shared" ref="K3:K8" si="1">AVERAGE(H3:J3)</f>
         <v>0.46500000000000002</v>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
         <v>0.61</v>
       </c>
       <c r="E4" s="4">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>0.67666666666666664</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -6900,7 +6900,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="K4" s="2">
-        <f>AVERAGE(H4:J4)</f>
+        <f t="shared" si="1"/>
         <v>0.73499999999999999</v>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
         <v>0.71</v>
       </c>
       <c r="E5" s="4">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -6934,7 +6934,7 @@
         <v>0.755</v>
       </c>
       <c r="K5" s="2">
-        <f>AVERAGE(H5:J5)</f>
+        <f t="shared" si="1"/>
         <v>0.79166666666666663</v>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
         <v>0.73</v>
       </c>
       <c r="E6" s="4">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -6968,7 +6968,7 @@
         <v>0.72</v>
       </c>
       <c r="K6" s="2">
-        <f>AVERAGE(H6:J6)</f>
+        <f t="shared" si="1"/>
         <v>0.70500000000000007</v>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="E7" s="4">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -7002,7 +7002,7 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="K7" s="2">
-        <f>AVERAGE(H7:J7)</f>
+        <f t="shared" si="1"/>
         <v>0.78833333333333344</v>
       </c>
     </row>
@@ -7020,7 +7020,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="E8" s="2">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -7036,7 +7036,7 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="K8" s="2">
-        <f>AVERAGE(H8:J8)</f>
+        <f t="shared" si="1"/>
         <v>0.755</v>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A0701-2FA7-496B-B6A0-9C9A99A3E3C7}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -7275,8 +7275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0725C-5F1D-4E6B-9944-74A72301A694}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,115 +7305,115 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="C2" s="1">
-        <v>0.745</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E2" s="1">
         <f>AVERAGE(B2:D2)</f>
-        <v>0.76500000000000001</v>
+        <v>0.73833333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="C3" s="1">
-        <v>0.75</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>0.72</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(B3:D3)</f>
-        <v>0.76500000000000001</v>
+        <v>0.7533333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
-        <v>0.81499999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="C4" s="1">
-        <v>0.745</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>0.71499999999999997</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(B4:D4)</f>
-        <v>0.7583333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1">
-        <v>0.83</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>0.70499999999999996</v>
+        <v>0.745</v>
       </c>
       <c r="D5" s="1">
-        <v>0.72499999999999998</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(B5:D5)</f>
-        <v>0.7533333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="B6" s="1">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C6" s="1">
-        <v>0.72499999999999998</v>
+        <v>0.745</v>
       </c>
       <c r="D6" s="1">
-        <v>0.70499999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="1">
         <f>AVERAGE(B6:D6)</f>
-        <v>0.75</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.79</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>0.69499999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="D7" s="1">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="1">
         <f>AVERAGE(B7:D7)</f>
-        <v>0.73833333333333329</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E7">
-    <sortCondition descending="1" ref="E2:E7"/>
+    <sortCondition ref="A2:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Anisha/Results.xlsx
+++ b/Anisha/Results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87CB92B0-E8BE-4264-9BFA-CFC64687175C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1624EDE2-DE28-460E-97A3-0C98DA554993}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count &amp; tfidf" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
-    <t>Kernel SVM</t>
-  </si>
-  <si>
     <t>KNN</t>
   </si>
   <si>
     <t>Logistic Regression</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
   </si>
   <si>
     <t>Naïve Baiyes GAUSSIAN</t>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>TF-IDF VECTORIZER</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +110,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,7 +268,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -277,7 +283,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -289,7 +295,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.72</c:v>
@@ -304,7 +310,7 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,7 +374,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -383,7 +389,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,7 +401,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.7</c:v>
@@ -410,7 +416,7 @@
                   <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>0.71499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +480,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -489,7 +495,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -501,7 +507,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.61</c:v>
@@ -577,7 +583,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -592,7 +598,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -604,7 +610,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.77833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.67666666666666664</c:v>
@@ -619,7 +625,7 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1058,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1067,7 +1073,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1079,7 +1085,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.77500000000000002</c:v>
@@ -1094,7 +1100,7 @@
                   <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,7 +1164,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1173,7 +1179,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1185,7 +1191,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73499999999999999</c:v>
@@ -1200,7 +1206,7 @@
                   <c:v>0.78500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +1270,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1279,7 +1285,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1291,7 +1297,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.69499999999999995</c:v>
@@ -1306,7 +1312,7 @@
                   <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,7 +1371,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1380,7 +1386,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1392,7 +1398,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.77666666666666673</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73499999999999999</c:v>
@@ -1407,7 +1413,7 @@
                   <c:v>0.78833333333333344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.755</c:v>
+                  <c:v>0.71666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1841,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1850,7 +1856,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,7 +1868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.77833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.67666666666666664</c:v>
@@ -1877,7 +1883,7 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.74333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,7 +1947,7 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Kernel SVM</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>KNN</c:v>
@@ -1956,7 +1962,7 @@
                   <c:v>Naïve Baiyes MULTINOMIAL</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Random Forest</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1968,7 +1974,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.77666666666666673</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73499999999999999</c:v>
@@ -1983,7 +1989,7 @@
                   <c:v>0.78833333333333344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.755</c:v>
+                  <c:v>0.71666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6780,8 +6786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,84 +6801,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>0.48</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="C3" s="4">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="4">
-        <v>0.48499999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E8" si="0">AVERAGE(B3:D3)</f>
-        <v>0.46500000000000002</v>
+        <v>0.77833333333333332</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
-        <v>0.48</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="I3" s="2">
-        <v>0.43</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="J3" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K8" si="1">AVERAGE(H3:J3)</f>
-        <v>0.46500000000000002</v>
+        <f>AVERAGE(H3:J3)</f>
+        <v>0.77666666666666673</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>0.72</v>
@@ -6888,7 +6894,7 @@
         <v>0.67666666666666664</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0.77500000000000002</v>
@@ -6900,13 +6906,13 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K3:K8" si="1">AVERAGE(H4:J4)</f>
         <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>0.79500000000000004</v>
@@ -6922,7 +6928,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0.80500000000000005</v>
@@ -6940,7 +6946,7 @@
     </row>
     <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>0.72</v>
@@ -6956,7 +6962,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>0.72</v>
@@ -6974,7 +6980,7 @@
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>0.79</v>
@@ -6990,7 +6996,7 @@
         <v>0.79</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
         <v>0.81499999999999995</v>
@@ -7008,36 +7014,36 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="C8" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="D8" s="2">
         <v>0.70499999999999996</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.74333333333333329</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
-        <v>0.81</v>
+        <v>0.755</v>
       </c>
       <c r="I8" s="2">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="J8" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.755</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7058,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594473BF-7B7C-4B3C-BE05-0F61E8B85555}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7072,10 +7078,10 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7086,18 +7092,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.46500000000000002</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.77833333333333332</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.77666666666666673</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>0.67666666666666664</v>
@@ -7108,7 +7114,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>0.77500000000000002</v>
@@ -7119,7 +7125,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4">
         <v>0.70833333333333337</v>
@@ -7130,7 +7136,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>0.79</v>
@@ -7141,13 +7147,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.755</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.71666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7160,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A0701-2FA7-496B-B6A0-9C9A99A3E3C7}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,16 +7178,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,7 +7282,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,16 +7297,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7317,7 +7323,7 @@
         <v>0.73</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E7" si="0">AVERAGE(B2:D2)</f>
         <v>0.73833333333333329</v>
       </c>
     </row>
@@ -7335,7 +7341,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>0.7533333333333333</v>
       </c>
     </row>
@@ -7353,7 +7359,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7371,7 +7377,7 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0.7583333333333333</v>
       </c>
     </row>
@@ -7389,7 +7395,7 @@
         <v>0.72</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
     </row>
@@ -7407,7 +7413,7 @@
         <v>0.72</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
     </row>
